--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il17c-Il17re.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il17c-Il17re.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.2714235</v>
+        <v>1.0803965</v>
       </c>
       <c r="H2">
-        <v>2.542847</v>
+        <v>2.160793</v>
       </c>
       <c r="I2">
-        <v>0.1967620139026182</v>
+        <v>0.129840788286602</v>
       </c>
       <c r="J2">
-        <v>0.1416681286530974</v>
+        <v>0.09128228923948231</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.019789</v>
+        <v>0.0058405</v>
       </c>
       <c r="N2">
-        <v>0.039578</v>
+        <v>0.011681</v>
       </c>
       <c r="O2">
-        <v>0.08709595783620817</v>
+        <v>0.06069008276628872</v>
       </c>
       <c r="P2">
-        <v>0.06267826120006903</v>
+        <v>0.04129546354431812</v>
       </c>
       <c r="Q2">
-        <v>0.0251601996415</v>
+        <v>0.00631005575825</v>
       </c>
       <c r="R2">
-        <v>0.100640798566</v>
+        <v>0.025240223033</v>
       </c>
       <c r="S2">
-        <v>0.01713717606662984</v>
+        <v>0.007880048187554046</v>
       </c>
       <c r="T2">
-        <v>0.008879511971443821</v>
+        <v>0.003769544447530944</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.2714235</v>
+        <v>1.0803965</v>
       </c>
       <c r="H3">
-        <v>2.542847</v>
+        <v>2.160793</v>
       </c>
       <c r="I3">
-        <v>0.1967620139026182</v>
+        <v>0.129840788286602</v>
       </c>
       <c r="J3">
-        <v>0.1416681286530974</v>
+        <v>0.09128228923948231</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>0.141582</v>
       </c>
       <c r="O3">
-        <v>0.2077116900359801</v>
+        <v>0.4904045485955364</v>
       </c>
       <c r="P3">
-        <v>0.2242183429488144</v>
+        <v>0.5005302901747837</v>
       </c>
       <c r="Q3">
-        <v>0.06000356065900001</v>
+        <v>0.05098823242100001</v>
       </c>
       <c r="R3">
-        <v>0.360021363954</v>
+        <v>0.305929394526</v>
       </c>
       <c r="S3">
-        <v>0.04086977044259584</v>
+        <v>0.06367451316897967</v>
       </c>
       <c r="T3">
-        <v>0.03176459305525695</v>
+        <v>0.04568955072085661</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.2714235</v>
+        <v>1.0803965</v>
       </c>
       <c r="H4">
-        <v>2.542847</v>
+        <v>2.160793</v>
       </c>
       <c r="I4">
-        <v>0.1967620139026182</v>
+        <v>0.129840788286602</v>
       </c>
       <c r="J4">
-        <v>0.1416681286530974</v>
+        <v>0.09128228923948231</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.05371466666666667</v>
+        <v>0.02877533333333333</v>
       </c>
       <c r="N4">
-        <v>0.161144</v>
+        <v>0.086326</v>
       </c>
       <c r="O4">
-        <v>0.2364106495116468</v>
+        <v>0.2990116191469132</v>
       </c>
       <c r="P4">
-        <v>0.2551979817783598</v>
+        <v>0.3051855308558176</v>
       </c>
       <c r="Q4">
-        <v>0.06829408949466667</v>
+        <v>0.03108876941966666</v>
       </c>
       <c r="R4">
-        <v>0.409764536968</v>
+        <v>0.186532616518</v>
       </c>
       <c r="S4">
-        <v>0.04651663550593764</v>
+        <v>0.03882390433688843</v>
       </c>
       <c r="T4">
-        <v>0.03615342051458748</v>
+        <v>0.0278580338992857</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.2714235</v>
+        <v>1.0803965</v>
       </c>
       <c r="H5">
-        <v>2.542847</v>
+        <v>2.160793</v>
       </c>
       <c r="I5">
-        <v>0.1967620139026182</v>
+        <v>0.129840788286602</v>
       </c>
       <c r="J5">
-        <v>0.1416681286530974</v>
+        <v>0.09128228923948231</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.0303915</v>
+        <v>0.01388133333333333</v>
       </c>
       <c r="N5">
-        <v>0.060783</v>
+        <v>0.041644</v>
       </c>
       <c r="O5">
-        <v>0.133760008215631</v>
+        <v>0.1442443744382232</v>
       </c>
       <c r="P5">
-        <v>0.0962598602891454</v>
+        <v>0.1472226935912665</v>
       </c>
       <c r="Q5">
-        <v>0.03864046730025</v>
+        <v>0.01499734394866667</v>
       </c>
       <c r="R5">
-        <v>0.154561869201</v>
+        <v>0.089984063692</v>
       </c>
       <c r="S5">
-        <v>0.02631888859613831</v>
+        <v>0.01872880328296668</v>
       </c>
       <c r="T5">
-        <v>0.01363695427157183</v>
+        <v>0.01343882449901366</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,108 +791,108 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.2714235</v>
+        <v>1.0803965</v>
       </c>
       <c r="H6">
-        <v>2.542847</v>
+        <v>2.160793</v>
       </c>
       <c r="I6">
-        <v>0.1967620139026182</v>
+        <v>0.129840788286602</v>
       </c>
       <c r="J6">
-        <v>0.1416681286530974</v>
+        <v>0.09128228923948231</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.01657266666666667</v>
+        <v>0.0005436666666666667</v>
       </c>
       <c r="N6">
-        <v>0.049718</v>
+        <v>0.001631</v>
       </c>
       <c r="O6">
-        <v>0.07294013225698787</v>
+        <v>0.005649375053038661</v>
       </c>
       <c r="P6">
-        <v>0.07873661605803811</v>
+        <v>0.00576602183381413</v>
       </c>
       <c r="Q6">
-        <v>0.02107087785766667</v>
+        <v>0.0005873755638333333</v>
       </c>
       <c r="R6">
-        <v>0.126425267146</v>
+        <v>0.003524253383</v>
       </c>
       <c r="S6">
-        <v>0.01435184731720826</v>
+        <v>0.0007335193102132037</v>
       </c>
       <c r="T6">
-        <v>0.01115446905341968</v>
+        <v>0.0005263356727953916</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.2714235</v>
+        <v>0.5923286666666666</v>
       </c>
       <c r="H7">
-        <v>2.542847</v>
+        <v>1.776986</v>
       </c>
       <c r="I7">
-        <v>0.1967620139026182</v>
+        <v>0.07118536667302412</v>
       </c>
       <c r="J7">
-        <v>0.1416681286530974</v>
+        <v>0.07506843553570876</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.05954733333333333</v>
+        <v>0.0058405</v>
       </c>
       <c r="N7">
-        <v>0.178642</v>
+        <v>0.011681</v>
       </c>
       <c r="O7">
-        <v>0.2620815621435461</v>
+        <v>0.06069008276628872</v>
       </c>
       <c r="P7">
-        <v>0.2829089377255731</v>
+        <v>0.04129546354431812</v>
       </c>
       <c r="Q7">
-        <v>0.07570987896233333</v>
+        <v>0.003459495577666667</v>
       </c>
       <c r="R7">
-        <v>0.454259273774</v>
+        <v>0.020756973466</v>
       </c>
       <c r="S7">
-        <v>0.05156769597410832</v>
+        <v>0.004320245795134445</v>
       </c>
       <c r="T7">
-        <v>0.04007917978681761</v>
+        <v>0.003099985842993856</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>1.776986</v>
       </c>
       <c r="I8">
-        <v>0.09166715995542474</v>
+        <v>0.07118536667302412</v>
       </c>
       <c r="J8">
-        <v>0.09900016841860833</v>
+        <v>0.07506843553570876</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.019789</v>
+        <v>0.04719400000000001</v>
       </c>
       <c r="N8">
-        <v>0.039578</v>
+        <v>0.141582</v>
       </c>
       <c r="O8">
-        <v>0.08709595783620817</v>
+        <v>0.4904045485955364</v>
       </c>
       <c r="P8">
-        <v>0.06267826120006903</v>
+        <v>0.5005302901747837</v>
       </c>
       <c r="Q8">
-        <v>0.01172159198466666</v>
+        <v>0.02795435909466667</v>
       </c>
       <c r="R8">
-        <v>0.07032955190799998</v>
+        <v>0.251589231852</v>
       </c>
       <c r="S8">
-        <v>0.007983839098442623</v>
+        <v>0.03490962760989214</v>
       </c>
       <c r="T8">
-        <v>0.006205158414992358</v>
+        <v>0.03757402582165534</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,10 +983,10 @@
         <v>1.776986</v>
       </c>
       <c r="I9">
-        <v>0.09166715995542474</v>
+        <v>0.07118536667302412</v>
       </c>
       <c r="J9">
-        <v>0.09900016841860833</v>
+        <v>0.07506843553570876</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -995,28 +995,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.04719400000000001</v>
+        <v>0.02877533333333333</v>
       </c>
       <c r="N9">
-        <v>0.141582</v>
+        <v>0.086326</v>
       </c>
       <c r="O9">
-        <v>0.2077116900359801</v>
+        <v>0.2990116191469132</v>
       </c>
       <c r="P9">
-        <v>0.2242183429488144</v>
+        <v>0.3051855308558176</v>
       </c>
       <c r="Q9">
-        <v>0.02795435909466667</v>
+        <v>0.01704445482622222</v>
       </c>
       <c r="R9">
-        <v>0.251589231852</v>
+        <v>0.153400093436</v>
       </c>
       <c r="S9">
-        <v>0.01904034071513979</v>
+        <v>0.02128525174846766</v>
       </c>
       <c r="T9">
-        <v>0.0221976537144739</v>
+        <v>0.022909800349481</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>1.776986</v>
       </c>
       <c r="I10">
-        <v>0.09166715995542474</v>
+        <v>0.07118536667302412</v>
       </c>
       <c r="J10">
-        <v>0.09900016841860833</v>
+        <v>0.07506843553570876</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.05371466666666667</v>
+        <v>0.01388133333333333</v>
       </c>
       <c r="N10">
-        <v>0.161144</v>
+        <v>0.041644</v>
       </c>
       <c r="O10">
-        <v>0.2364106495116468</v>
+        <v>0.1442443744382232</v>
       </c>
       <c r="P10">
-        <v>0.2551979817783598</v>
+        <v>0.1472226935912665</v>
       </c>
       <c r="Q10">
-        <v>0.03181673688711111</v>
+        <v>0.008222311664888888</v>
       </c>
       <c r="R10">
-        <v>0.286350631984</v>
+        <v>0.074000804984</v>
       </c>
       <c r="S10">
-        <v>0.02167109282394998</v>
+        <v>0.01026808868490591</v>
       </c>
       <c r="T10">
-        <v>0.02526464317614656</v>
+        <v>0.01105177728324939</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,45 +1107,45 @@
         <v>1.776986</v>
       </c>
       <c r="I11">
-        <v>0.09166715995542474</v>
+        <v>0.07118536667302412</v>
       </c>
       <c r="J11">
-        <v>0.09900016841860833</v>
+        <v>0.07506843553570876</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.0303915</v>
+        <v>0.0005436666666666667</v>
       </c>
       <c r="N11">
-        <v>0.060783</v>
+        <v>0.001631</v>
       </c>
       <c r="O11">
-        <v>0.133760008215631</v>
+        <v>0.005649375053038661</v>
       </c>
       <c r="P11">
-        <v>0.0962598602891454</v>
+        <v>0.00576602183381413</v>
       </c>
       <c r="Q11">
-        <v>0.018001756673</v>
+        <v>0.0003220293517777777</v>
       </c>
       <c r="R11">
-        <v>0.108010540038</v>
+        <v>0.002898264166</v>
       </c>
       <c r="S11">
-        <v>0.01226140006874117</v>
+        <v>0.0004021528346239922</v>
       </c>
       <c r="T11">
-        <v>0.009529742380577104</v>
+        <v>0.0004328462383291652</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,117 +1154,117 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.5923286666666666</v>
+        <v>1.343351</v>
       </c>
       <c r="H12">
-        <v>1.776986</v>
+        <v>4.030053</v>
       </c>
       <c r="I12">
-        <v>0.09166715995542474</v>
+        <v>0.1614423526784797</v>
       </c>
       <c r="J12">
-        <v>0.09900016841860833</v>
+        <v>0.1702488223519992</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M12">
-        <v>0.01657266666666667</v>
+        <v>0.0058405</v>
       </c>
       <c r="N12">
-        <v>0.049718</v>
+        <v>0.011681</v>
       </c>
       <c r="O12">
-        <v>0.07294013225698787</v>
+        <v>0.06069008276628872</v>
       </c>
       <c r="P12">
-        <v>0.07873661605803811</v>
+        <v>0.04129546354431812</v>
       </c>
       <c r="Q12">
-        <v>0.009816465549777777</v>
+        <v>0.0078458415155</v>
       </c>
       <c r="R12">
-        <v>0.08834818994799999</v>
+        <v>0.047075049093</v>
       </c>
       <c r="S12">
-        <v>0.006686214770771142</v>
+        <v>0.009797949746041305</v>
       </c>
       <c r="T12">
-        <v>0.007794938250457074</v>
+        <v>0.007030504036900074</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.5923286666666666</v>
+        <v>1.343351</v>
       </c>
       <c r="H13">
-        <v>1.776986</v>
+        <v>4.030053</v>
       </c>
       <c r="I13">
-        <v>0.09166715995542474</v>
+        <v>0.1614423526784797</v>
       </c>
       <c r="J13">
-        <v>0.09900016841860833</v>
+        <v>0.1702488223519992</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.05954733333333333</v>
+        <v>0.04719400000000001</v>
       </c>
       <c r="N13">
-        <v>0.178642</v>
+        <v>0.141582</v>
       </c>
       <c r="O13">
-        <v>0.2620815621435461</v>
+        <v>0.4904045485955364</v>
       </c>
       <c r="P13">
-        <v>0.2829089377255731</v>
+        <v>0.5005302901747837</v>
       </c>
       <c r="Q13">
-        <v>0.03527159255688889</v>
+        <v>0.06339810709400001</v>
       </c>
       <c r="R13">
-        <v>0.317444333012</v>
+        <v>0.570582963846</v>
       </c>
       <c r="S13">
-        <v>0.02402427247838003</v>
+        <v>0.07917206408949121</v>
       </c>
       <c r="T13">
-        <v>0.02800803248196132</v>
+        <v>0.08521469245376136</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>1.270545666666667</v>
+        <v>1.343351</v>
       </c>
       <c r="H14">
-        <v>3.811637</v>
+        <v>4.030053</v>
       </c>
       <c r="I14">
-        <v>0.1966261628234637</v>
+        <v>0.1614423526784797</v>
       </c>
       <c r="J14">
-        <v>0.2123554743541024</v>
+        <v>0.1702488223519992</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.019789</v>
+        <v>0.02877533333333333</v>
       </c>
       <c r="N14">
-        <v>0.039578</v>
+        <v>0.086326</v>
       </c>
       <c r="O14">
-        <v>0.08709595783620817</v>
+        <v>0.2990116191469132</v>
       </c>
       <c r="P14">
-        <v>0.06267826120006903</v>
+        <v>0.3051855308558176</v>
       </c>
       <c r="Q14">
-        <v>0.02514282819766667</v>
+        <v>0.03865537280866667</v>
       </c>
       <c r="R14">
-        <v>0.150856969186</v>
+        <v>0.3478983552779999</v>
       </c>
       <c r="S14">
-        <v>0.01712534398676779</v>
+        <v>0.0482731392732792</v>
       </c>
       <c r="T14">
-        <v>0.01331007188883099</v>
+        <v>0.05195747722707267</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>1.343351</v>
+      </c>
+      <c r="H15">
+        <v>4.030053</v>
+      </c>
+      <c r="I15">
+        <v>0.1614423526784797</v>
+      </c>
+      <c r="J15">
+        <v>0.1702488223519992</v>
+      </c>
+      <c r="K15">
         <v>3</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1.270545666666667</v>
-      </c>
-      <c r="H15">
-        <v>3.811637</v>
-      </c>
-      <c r="I15">
-        <v>0.1966261628234637</v>
-      </c>
-      <c r="J15">
-        <v>0.2123554743541024</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.04719400000000001</v>
+        <v>0.01388133333333333</v>
       </c>
       <c r="N15">
-        <v>0.141582</v>
+        <v>0.041644</v>
       </c>
       <c r="O15">
-        <v>0.2077116900359801</v>
+        <v>0.1442443744382232</v>
       </c>
       <c r="P15">
-        <v>0.2242183429488144</v>
+        <v>0.1472226935912665</v>
       </c>
       <c r="Q15">
-        <v>0.05996213219266668</v>
+        <v>0.01864750301466667</v>
       </c>
       <c r="R15">
-        <v>0.5396591897340001</v>
+        <v>0.167827527132</v>
       </c>
       <c r="S15">
-        <v>0.04084155258535143</v>
+        <v>0.02328715116994231</v>
       </c>
       <c r="T15">
-        <v>0.04761399257578629</v>
+        <v>0.02506449020740234</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,60 +1402,60 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>1.270545666666667</v>
+        <v>1.343351</v>
       </c>
       <c r="H16">
-        <v>3.811637</v>
+        <v>4.030053</v>
       </c>
       <c r="I16">
-        <v>0.1966261628234637</v>
+        <v>0.1614423526784797</v>
       </c>
       <c r="J16">
-        <v>0.2123554743541024</v>
+        <v>0.1702488223519992</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.05371466666666667</v>
+        <v>0.0005436666666666667</v>
       </c>
       <c r="N16">
-        <v>0.161144</v>
+        <v>0.001631</v>
       </c>
       <c r="O16">
-        <v>0.2364106495116468</v>
+        <v>0.005649375053038661</v>
       </c>
       <c r="P16">
-        <v>0.2551979817783598</v>
+        <v>0.00576602183381413</v>
       </c>
       <c r="Q16">
-        <v>0.06824693696977778</v>
+        <v>0.0007303351603333333</v>
       </c>
       <c r="R16">
-        <v>0.614222432728</v>
+        <v>0.006573016443</v>
       </c>
       <c r="S16">
-        <v>0.04648451886407785</v>
+        <v>0.0009120483997256723</v>
       </c>
       <c r="T16">
-        <v>0.05419268847475318</v>
+        <v>0.0009816584268627704</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,25 +1464,25 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G17">
-        <v>1.270545666666667</v>
+        <v>0.2108555</v>
       </c>
       <c r="H17">
-        <v>3.811637</v>
+        <v>0.421711</v>
       </c>
       <c r="I17">
-        <v>0.1966261628234637</v>
+        <v>0.02534036748042557</v>
       </c>
       <c r="J17">
-        <v>0.2123554743541024</v>
+        <v>0.01781510097333309</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1491,33 +1491,33 @@
         <v>0.5</v>
       </c>
       <c r="M17">
-        <v>0.0303915</v>
+        <v>0.0058405</v>
       </c>
       <c r="N17">
-        <v>0.060783</v>
+        <v>0.011681</v>
       </c>
       <c r="O17">
-        <v>0.133760008215631</v>
+        <v>0.06069008276628872</v>
       </c>
       <c r="P17">
-        <v>0.0962598602891454</v>
+        <v>0.04129546354431812</v>
       </c>
       <c r="Q17">
-        <v>0.03861378862850001</v>
+        <v>0.00123150154775</v>
       </c>
       <c r="R17">
-        <v>0.231682731771</v>
+        <v>0.004926006191</v>
       </c>
       <c r="S17">
-        <v>0.02630071715467449</v>
+        <v>0.001537908999715199</v>
       </c>
       <c r="T17">
-        <v>0.0204413082929611</v>
+        <v>0.0007356828527826228</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,25 +1526,25 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G18">
-        <v>1.270545666666667</v>
+        <v>0.2108555</v>
       </c>
       <c r="H18">
-        <v>3.811637</v>
+        <v>0.421711</v>
       </c>
       <c r="I18">
-        <v>0.1966261628234637</v>
+        <v>0.02534036748042557</v>
       </c>
       <c r="J18">
-        <v>0.2123554743541024</v>
+        <v>0.01781510097333309</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1553,90 +1553,90 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.01657266666666667</v>
+        <v>0.04719400000000001</v>
       </c>
       <c r="N18">
-        <v>0.049718</v>
+        <v>0.141582</v>
       </c>
       <c r="O18">
-        <v>0.07294013225698787</v>
+        <v>0.4904045485955364</v>
       </c>
       <c r="P18">
-        <v>0.07873661605803811</v>
+        <v>0.5005302901747837</v>
       </c>
       <c r="Q18">
-        <v>0.02105632981844445</v>
+        <v>0.009951114467000002</v>
       </c>
       <c r="R18">
-        <v>0.189506968366</v>
+        <v>0.059706686802</v>
       </c>
       <c r="S18">
-        <v>0.01434193832152747</v>
+        <v>0.01242703147548311</v>
       </c>
       <c r="T18">
-        <v>0.01672015145204152</v>
+        <v>0.008916997659675484</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G19">
-        <v>1.270545666666667</v>
+        <v>0.2108555</v>
       </c>
       <c r="H19">
-        <v>3.811637</v>
+        <v>0.421711</v>
       </c>
       <c r="I19">
-        <v>0.1966261628234637</v>
+        <v>0.02534036748042557</v>
       </c>
       <c r="J19">
-        <v>0.2123554743541024</v>
+        <v>0.01781510097333309</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.05954733333333333</v>
+        <v>0.02877533333333333</v>
       </c>
       <c r="N19">
-        <v>0.178642</v>
+        <v>0.086326</v>
       </c>
       <c r="O19">
-        <v>0.2620815621435461</v>
+        <v>0.2990116191469132</v>
       </c>
       <c r="P19">
-        <v>0.2829089377255731</v>
+        <v>0.3051855308558176</v>
       </c>
       <c r="Q19">
-        <v>0.07565760632822223</v>
+        <v>0.006067437297666667</v>
       </c>
       <c r="R19">
-        <v>0.680918456954</v>
+        <v>0.036404623786</v>
       </c>
       <c r="S19">
-        <v>0.05153209191106461</v>
+        <v>0.007577064310099836</v>
       </c>
       <c r="T19">
-        <v>0.0600772616697293</v>
+        <v>0.005436911047796653</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1659,46 +1659,46 @@
         <v>0.5</v>
       </c>
       <c r="G20">
-        <v>0.164451</v>
+        <v>0.2108555</v>
       </c>
       <c r="H20">
-        <v>0.328902</v>
+        <v>0.421711</v>
       </c>
       <c r="I20">
-        <v>0.02544998574298766</v>
+        <v>0.02534036748042557</v>
       </c>
       <c r="J20">
-        <v>0.01832392230057924</v>
+        <v>0.01781510097333309</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.019789</v>
+        <v>0.01388133333333333</v>
       </c>
       <c r="N20">
-        <v>0.039578</v>
+        <v>0.041644</v>
       </c>
       <c r="O20">
-        <v>0.08709595783620817</v>
+        <v>0.1442443744382232</v>
       </c>
       <c r="P20">
-        <v>0.06267826120006903</v>
+        <v>0.1472226935912665</v>
       </c>
       <c r="Q20">
-        <v>0.003254320838999999</v>
+        <v>0.002926955480666667</v>
       </c>
       <c r="R20">
-        <v>0.013017283356</v>
+        <v>0.017561732884</v>
       </c>
       <c r="S20">
-        <v>0.002216590885203352</v>
+        <v>0.003655205455248681</v>
       </c>
       <c r="T20">
-        <v>0.001148511588165476</v>
+        <v>0.002622787151894491</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1721,51 +1721,51 @@
         <v>0.5</v>
       </c>
       <c r="G21">
-        <v>0.164451</v>
+        <v>0.2108555</v>
       </c>
       <c r="H21">
-        <v>0.328902</v>
+        <v>0.421711</v>
       </c>
       <c r="I21">
-        <v>0.02544998574298766</v>
+        <v>0.02534036748042557</v>
       </c>
       <c r="J21">
-        <v>0.01832392230057924</v>
+        <v>0.01781510097333309</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.04719400000000001</v>
+        <v>0.0005436666666666667</v>
       </c>
       <c r="N21">
-        <v>0.141582</v>
+        <v>0.001631</v>
       </c>
       <c r="O21">
-        <v>0.2077116900359801</v>
+        <v>0.005649375053038661</v>
       </c>
       <c r="P21">
-        <v>0.2242183429488144</v>
+        <v>0.00576602183381413</v>
       </c>
       <c r="Q21">
-        <v>0.007761100494000001</v>
+        <v>0.0001146351068333333</v>
       </c>
       <c r="R21">
-        <v>0.046566602964</v>
+        <v>0.000687810641</v>
       </c>
       <c r="S21">
-        <v>0.005286259550067564</v>
+        <v>0.0001431572398787484</v>
       </c>
       <c r="T21">
-        <v>0.004108559494558705</v>
+        <v>0.000102722261183842</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>4.414056666666667</v>
+      </c>
+      <c r="H22">
+        <v>13.24217</v>
+      </c>
+      <c r="I22">
+        <v>0.5304761697596492</v>
+      </c>
+      <c r="J22">
+        <v>0.5594129526050833</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
         <v>0.5</v>
       </c>
-      <c r="G22">
-        <v>0.164451</v>
-      </c>
-      <c r="H22">
-        <v>0.328902</v>
-      </c>
-      <c r="I22">
-        <v>0.02544998574298766</v>
-      </c>
-      <c r="J22">
-        <v>0.01832392230057924</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M22">
-        <v>0.05371466666666667</v>
+        <v>0.0058405</v>
       </c>
       <c r="N22">
-        <v>0.161144</v>
+        <v>0.011681</v>
       </c>
       <c r="O22">
-        <v>0.2364106495116468</v>
+        <v>0.06069008276628872</v>
       </c>
       <c r="P22">
-        <v>0.2551979817783598</v>
+        <v>0.04129546354431812</v>
       </c>
       <c r="Q22">
-        <v>0.008833430647999999</v>
+        <v>0.02578029796166667</v>
       </c>
       <c r="R22">
-        <v>0.053000583888</v>
+        <v>0.15468178777</v>
       </c>
       <c r="S22">
-        <v>0.006016647659561862</v>
+        <v>0.03219464264825694</v>
       </c>
       <c r="T22">
-        <v>0.004676227989371303</v>
+        <v>0.02310121719052257</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.164451</v>
+        <v>4.414056666666667</v>
       </c>
       <c r="H23">
-        <v>0.328902</v>
+        <v>13.24217</v>
       </c>
       <c r="I23">
-        <v>0.02544998574298766</v>
+        <v>0.5304761697596492</v>
       </c>
       <c r="J23">
-        <v>0.01832392230057924</v>
+        <v>0.5594129526050833</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>0.0303915</v>
+        <v>0.04719400000000001</v>
       </c>
       <c r="N23">
-        <v>0.060783</v>
+        <v>0.141582</v>
       </c>
       <c r="O23">
-        <v>0.133760008215631</v>
+        <v>0.4904045485955364</v>
       </c>
       <c r="P23">
-        <v>0.0962598602891454</v>
+        <v>0.5005302901747837</v>
       </c>
       <c r="Q23">
-        <v>0.0049979125665</v>
+        <v>0.2083169903266667</v>
       </c>
       <c r="R23">
-        <v>0.019991650266</v>
+        <v>1.87485291294</v>
       </c>
       <c r="S23">
-        <v>0.00340419030206972</v>
+        <v>0.2601479265716699</v>
       </c>
       <c r="T23">
-        <v>0.001763858200602914</v>
+        <v>0.2800031274949548</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,25 +1898,25 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.164451</v>
+        <v>4.414056666666667</v>
       </c>
       <c r="H24">
-        <v>0.328902</v>
+        <v>13.24217</v>
       </c>
       <c r="I24">
-        <v>0.02544998574298766</v>
+        <v>0.5304761697596492</v>
       </c>
       <c r="J24">
-        <v>0.01832392230057924</v>
+        <v>0.5594129526050833</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1925,33 +1925,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.01657266666666667</v>
+        <v>0.02877533333333333</v>
       </c>
       <c r="N24">
-        <v>0.049718</v>
+        <v>0.086326</v>
       </c>
       <c r="O24">
-        <v>0.07294013225698787</v>
+        <v>0.2990116191469132</v>
       </c>
       <c r="P24">
-        <v>0.07873661605803811</v>
+        <v>0.3051855308558176</v>
       </c>
       <c r="Q24">
-        <v>0.002725391605999999</v>
+        <v>0.1270159519355556</v>
       </c>
       <c r="R24">
-        <v>0.016352349636</v>
+        <v>1.14314356742</v>
       </c>
       <c r="S24">
-        <v>0.001856325326031975</v>
+        <v>0.1586185384386855</v>
       </c>
       <c r="T24">
-        <v>0.00144276363485803</v>
+        <v>0.1707247389084027</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.164451</v>
+        <v>4.414056666666667</v>
       </c>
       <c r="H25">
-        <v>0.328902</v>
+        <v>13.24217</v>
       </c>
       <c r="I25">
-        <v>0.02544998574298766</v>
+        <v>0.5304761697596492</v>
       </c>
       <c r="J25">
-        <v>0.01832392230057924</v>
+        <v>0.5594129526050833</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.05954733333333333</v>
+        <v>0.01388133333333333</v>
       </c>
       <c r="N25">
-        <v>0.178642</v>
+        <v>0.041644</v>
       </c>
       <c r="O25">
-        <v>0.2620815621435461</v>
+        <v>0.1442443744382232</v>
       </c>
       <c r="P25">
-        <v>0.2829089377255731</v>
+        <v>0.1472226935912665</v>
       </c>
       <c r="Q25">
-        <v>0.009792618514</v>
+        <v>0.06127299194222223</v>
       </c>
       <c r="R25">
-        <v>0.058755711084</v>
+        <v>0.5514569274800001</v>
       </c>
       <c r="S25">
-        <v>0.006669972020053182</v>
+        <v>0.07651820326136528</v>
       </c>
       <c r="T25">
-        <v>0.005184001393022815</v>
+        <v>0.08235828171236384</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.8809556666666666</v>
+        <v>4.414056666666667</v>
       </c>
       <c r="H26">
-        <v>2.642867</v>
+        <v>13.24217</v>
       </c>
       <c r="I26">
-        <v>0.1363342828980721</v>
+        <v>0.5304761697596492</v>
       </c>
       <c r="J26">
-        <v>0.1472404836661527</v>
+        <v>0.5594129526050833</v>
       </c>
       <c r="K26">
         <v>1</v>
       </c>
       <c r="L26">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>0.019789</v>
+        <v>0.0005436666666666667</v>
       </c>
       <c r="N26">
-        <v>0.039578</v>
+        <v>0.001631</v>
       </c>
       <c r="O26">
-        <v>0.08709595783620817</v>
+        <v>0.005649375053038661</v>
       </c>
       <c r="P26">
-        <v>0.06267826120006903</v>
+        <v>0.00576602183381413</v>
       </c>
       <c r="Q26">
-        <v>0.01743323168766666</v>
+        <v>0.002399775474444445</v>
       </c>
       <c r="R26">
-        <v>0.104599390126</v>
+        <v>0.02159797927</v>
       </c>
       <c r="S26">
-        <v>0.01187416495492016</v>
+        <v>0.002996858839671664</v>
       </c>
       <c r="T26">
-        <v>0.009228777494451619</v>
+        <v>0.003225587298839339</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,7 +2084,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -2093,51 +2093,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.8809556666666666</v>
+        <v>0.6799446666666666</v>
       </c>
       <c r="H27">
-        <v>2.642867</v>
+        <v>2.039834</v>
       </c>
       <c r="I27">
-        <v>0.1363342828980721</v>
+        <v>0.08171495512181946</v>
       </c>
       <c r="J27">
-        <v>0.1472404836661527</v>
+        <v>0.08617239929439338</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L27">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M27">
-        <v>0.04719400000000001</v>
+        <v>0.0058405</v>
       </c>
       <c r="N27">
-        <v>0.141582</v>
+        <v>0.011681</v>
       </c>
       <c r="O27">
-        <v>0.2077116900359801</v>
+        <v>0.06069008276628872</v>
       </c>
       <c r="P27">
-        <v>0.2242183429488144</v>
+        <v>0.04129546354431812</v>
       </c>
       <c r="Q27">
-        <v>0.04157582173266667</v>
+        <v>0.003971216825666667</v>
       </c>
       <c r="R27">
-        <v>0.374182395594</v>
+        <v>0.023827300954</v>
       </c>
       <c r="S27">
-        <v>0.02831822431060197</v>
+        <v>0.004959287389586791</v>
       </c>
       <c r="T27">
-        <v>0.03301401726260674</v>
+        <v>0.003558529173588046</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,7 +2146,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28">
         <v>2</v>
@@ -2155,16 +2155,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.8809556666666666</v>
+        <v>0.6799446666666666</v>
       </c>
       <c r="H28">
-        <v>2.642867</v>
+        <v>2.039834</v>
       </c>
       <c r="I28">
-        <v>0.1363342828980721</v>
+        <v>0.08171495512181946</v>
       </c>
       <c r="J28">
-        <v>0.1472404836661527</v>
+        <v>0.08617239929439338</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -2173,33 +2173,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.05371466666666667</v>
+        <v>0.04719400000000001</v>
       </c>
       <c r="N28">
-        <v>0.161144</v>
+        <v>0.141582</v>
       </c>
       <c r="O28">
-        <v>0.2364106495116468</v>
+        <v>0.4904045485955364</v>
       </c>
       <c r="P28">
-        <v>0.2551979817783598</v>
+        <v>0.5005302901747837</v>
       </c>
       <c r="Q28">
-        <v>0.04732023998311111</v>
+        <v>0.03208930859866667</v>
       </c>
       <c r="R28">
-        <v>0.425882159848</v>
+        <v>0.288803777388</v>
       </c>
       <c r="S28">
-        <v>0.03223087637063782</v>
+        <v>0.04007338568002039</v>
       </c>
       <c r="T28">
-        <v>0.03757547426767174</v>
+        <v>0.04313189602388005</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2208,7 +2208,7 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
         <v>2</v>
@@ -2217,51 +2217,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.8809556666666666</v>
+        <v>0.6799446666666666</v>
       </c>
       <c r="H29">
-        <v>2.642867</v>
+        <v>2.039834</v>
       </c>
       <c r="I29">
-        <v>0.1363342828980721</v>
+        <v>0.08171495512181946</v>
       </c>
       <c r="J29">
-        <v>0.1472404836661527</v>
+        <v>0.08617239929439338</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M29">
-        <v>0.0303915</v>
+        <v>0.02877533333333333</v>
       </c>
       <c r="N29">
-        <v>0.060783</v>
+        <v>0.086326</v>
       </c>
       <c r="O29">
-        <v>0.133760008215631</v>
+        <v>0.2990116191469132</v>
       </c>
       <c r="P29">
-        <v>0.0962598602891454</v>
+        <v>0.3051855308558176</v>
       </c>
       <c r="Q29">
-        <v>0.0267735641435</v>
+        <v>0.01956563443155555</v>
       </c>
       <c r="R29">
-        <v>0.160641384861</v>
+        <v>0.176090709884</v>
       </c>
       <c r="S29">
-        <v>0.01823607480051828</v>
+        <v>0.02443372103949258</v>
       </c>
       <c r="T29">
-        <v>0.01417334838661006</v>
+        <v>0.02629856942377893</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2279,51 +2279,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.8809556666666666</v>
+        <v>0.6799446666666666</v>
       </c>
       <c r="H30">
-        <v>2.642867</v>
+        <v>2.039834</v>
       </c>
       <c r="I30">
-        <v>0.1363342828980721</v>
+        <v>0.08171495512181946</v>
       </c>
       <c r="J30">
-        <v>0.1472404836661527</v>
+        <v>0.08617239929439338</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0.01657266666666667</v>
+        <v>0.01388133333333333</v>
       </c>
       <c r="N30">
-        <v>0.049718</v>
+        <v>0.041644</v>
       </c>
       <c r="O30">
-        <v>0.07294013225698787</v>
+        <v>0.1442443744382232</v>
       </c>
       <c r="P30">
-        <v>0.07873661605803811</v>
+        <v>0.1472226935912665</v>
       </c>
       <c r="Q30">
-        <v>0.01459978461177778</v>
+        <v>0.009438538566222222</v>
       </c>
       <c r="R30">
-        <v>0.131398061506</v>
+        <v>0.08494684709599999</v>
       </c>
       <c r="S30">
-        <v>0.009944240625746977</v>
+        <v>0.01178692258379433</v>
       </c>
       <c r="T30">
-        <v>0.0115932174306217</v>
+        <v>0.01268653273734274</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2341,16 +2341,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.8809556666666666</v>
+        <v>0.6799446666666666</v>
       </c>
       <c r="H31">
-        <v>2.642867</v>
+        <v>2.039834</v>
       </c>
       <c r="I31">
-        <v>0.1363342828980721</v>
+        <v>0.08171495512181946</v>
       </c>
       <c r="J31">
-        <v>0.1472404836661527</v>
+        <v>0.08617239929439338</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -2359,400 +2359,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.05954733333333333</v>
+        <v>0.0005436666666666667</v>
       </c>
       <c r="N31">
-        <v>0.178642</v>
+        <v>0.001631</v>
       </c>
       <c r="O31">
-        <v>0.2620815621435461</v>
+        <v>0.005649375053038661</v>
       </c>
       <c r="P31">
-        <v>0.2829089377255731</v>
+        <v>0.00576602183381413</v>
       </c>
       <c r="Q31">
-        <v>0.05245856073488889</v>
+        <v>0.0003696632504444444</v>
       </c>
       <c r="R31">
-        <v>0.472127046614</v>
+        <v>0.003326969254</v>
       </c>
       <c r="S31">
-        <v>0.03573070183564687</v>
+        <v>0.0004616384289253806</v>
       </c>
       <c r="T31">
-        <v>0.04165564882419088</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>2.282028</v>
-      </c>
-      <c r="H32">
-        <v>6.846084</v>
-      </c>
-      <c r="I32">
-        <v>0.3531603946774337</v>
-      </c>
-      <c r="J32">
-        <v>0.3814118226074599</v>
-      </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="L32">
-        <v>0.5</v>
-      </c>
-      <c r="M32">
-        <v>0.019789</v>
-      </c>
-      <c r="N32">
-        <v>0.039578</v>
-      </c>
-      <c r="O32">
-        <v>0.08709595783620817</v>
-      </c>
-      <c r="P32">
-        <v>0.06267826120006903</v>
-      </c>
-      <c r="Q32">
-        <v>0.045159052092</v>
-      </c>
-      <c r="R32">
-        <v>0.270954312552</v>
-      </c>
-      <c r="S32">
-        <v>0.0307588428442444</v>
-      </c>
-      <c r="T32">
-        <v>0.02390622984218477</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>2.282028</v>
-      </c>
-      <c r="H33">
-        <v>6.846084</v>
-      </c>
-      <c r="I33">
-        <v>0.3531603946774337</v>
-      </c>
-      <c r="J33">
-        <v>0.3814118226074599</v>
-      </c>
-      <c r="K33">
-        <v>2</v>
-      </c>
-      <c r="L33">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M33">
-        <v>0.04719400000000001</v>
-      </c>
-      <c r="N33">
-        <v>0.141582</v>
-      </c>
-      <c r="O33">
-        <v>0.2077116900359801</v>
-      </c>
-      <c r="P33">
-        <v>0.2242183429488144</v>
-      </c>
-      <c r="Q33">
-        <v>0.107698029432</v>
-      </c>
-      <c r="R33">
-        <v>0.9692822648880002</v>
-      </c>
-      <c r="S33">
-        <v>0.07335554243222349</v>
-      </c>
-      <c r="T33">
-        <v>0.0855195268461318</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>2.282028</v>
-      </c>
-      <c r="H34">
-        <v>6.846084</v>
-      </c>
-      <c r="I34">
-        <v>0.3531603946774337</v>
-      </c>
-      <c r="J34">
-        <v>0.3814118226074599</v>
-      </c>
-      <c r="K34">
-        <v>2</v>
-      </c>
-      <c r="L34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M34">
-        <v>0.05371466666666667</v>
-      </c>
-      <c r="N34">
-        <v>0.161144</v>
-      </c>
-      <c r="O34">
-        <v>0.2364106495116468</v>
-      </c>
-      <c r="P34">
-        <v>0.2551979817783598</v>
-      </c>
-      <c r="Q34">
-        <v>0.122578373344</v>
-      </c>
-      <c r="R34">
-        <v>1.103205360096</v>
-      </c>
-      <c r="S34">
-        <v>0.0834908782874816</v>
-      </c>
-      <c r="T34">
-        <v>0.09733552735582958</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>2.282028</v>
-      </c>
-      <c r="H35">
-        <v>6.846084</v>
-      </c>
-      <c r="I35">
-        <v>0.3531603946774337</v>
-      </c>
-      <c r="J35">
-        <v>0.3814118226074599</v>
-      </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-      <c r="L35">
-        <v>0.5</v>
-      </c>
-      <c r="M35">
-        <v>0.0303915</v>
-      </c>
-      <c r="N35">
-        <v>0.060783</v>
-      </c>
-      <c r="O35">
-        <v>0.133760008215631</v>
-      </c>
-      <c r="P35">
-        <v>0.0962598602891454</v>
-      </c>
-      <c r="Q35">
-        <v>0.069354253962</v>
-      </c>
-      <c r="R35">
-        <v>0.416125523772</v>
-      </c>
-      <c r="S35">
-        <v>0.047238737293489</v>
-      </c>
-      <c r="T35">
-        <v>0.03671464875682241</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>2.282028</v>
-      </c>
-      <c r="H36">
-        <v>6.846084</v>
-      </c>
-      <c r="I36">
-        <v>0.3531603946774337</v>
-      </c>
-      <c r="J36">
-        <v>0.3814118226074599</v>
-      </c>
-      <c r="K36">
-        <v>2</v>
-      </c>
-      <c r="L36">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M36">
-        <v>0.01657266666666667</v>
-      </c>
-      <c r="N36">
-        <v>0.049718</v>
-      </c>
-      <c r="O36">
-        <v>0.07294013225698787</v>
-      </c>
-      <c r="P36">
-        <v>0.07873661605803811</v>
-      </c>
-      <c r="Q36">
-        <v>0.037819289368</v>
-      </c>
-      <c r="R36">
-        <v>0.340373604312</v>
-      </c>
-      <c r="S36">
-        <v>0.02575956589570205</v>
-      </c>
-      <c r="T36">
-        <v>0.03003107623664011</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>2.282028</v>
-      </c>
-      <c r="H37">
-        <v>6.846084</v>
-      </c>
-      <c r="I37">
-        <v>0.3531603946774337</v>
-      </c>
-      <c r="J37">
-        <v>0.3814118226074599</v>
-      </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-      <c r="L37">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M37">
-        <v>0.05954733333333333</v>
-      </c>
-      <c r="N37">
-        <v>0.178642</v>
-      </c>
-      <c r="O37">
-        <v>0.2620815621435461</v>
-      </c>
-      <c r="P37">
-        <v>0.2829089377255731</v>
-      </c>
-      <c r="Q37">
-        <v>0.135888681992</v>
-      </c>
-      <c r="R37">
-        <v>1.222998137928</v>
-      </c>
-      <c r="S37">
-        <v>0.09255682792429309</v>
-      </c>
-      <c r="T37">
-        <v>0.1079048135698512</v>
+        <v>0.0004968719358036216</v>
       </c>
     </row>
   </sheetData>
